--- a/MSc backyard birds/1-Input/Tree-inventory-participants.xlsx
+++ b/MSc backyard birds/1-Input/Tree-inventory-participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHUTTTAY\Documents\publications\private-trees-urban-forestry-and-greening\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/227cad9a4789806e/Desktop/MSc/MSc Investigation/mackenzie-msc/MSc backyard birds/1-Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4F6368-07A7-4E6F-91AC-5FCB4E9C2A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="confirmed-participants" sheetId="2" r:id="rId1"/>
@@ -1492,10 +1492,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,23 +1697,23 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C96" sqref="C96"/>
+      <selection pane="topRight" activeCell="E14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="15" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="15"/>
-    <col min="6" max="6" width="52.88671875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="14.44140625" style="2"/>
+    <col min="2" max="2" width="33.54296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="15"/>
+    <col min="6" max="6" width="52.90625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="14.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1750,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1771,7 +1767,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1788,7 +1784,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>172</v>
       </c>
@@ -1805,7 +1801,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1822,7 +1818,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1839,7 +1835,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1856,7 +1852,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1873,7 +1869,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +1886,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>174</v>
       </c>
@@ -1907,7 +1903,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1924,7 +1920,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -1941,7 +1937,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1958,7 +1954,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -1975,7 +1971,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1992,7 +1988,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -2009,7 +2005,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -2026,7 +2022,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -2043,7 +2039,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -2060,7 +2056,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -2077,7 +2073,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
@@ -2094,7 +2090,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
@@ -2111,7 +2107,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>87</v>
       </c>
@@ -2128,7 +2124,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>94</v>
       </c>
@@ -2162,7 +2158,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>176</v>
       </c>
@@ -2179,7 +2175,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>100</v>
       </c>
@@ -2196,7 +2192,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>104</v>
       </c>
@@ -2213,7 +2209,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>108</v>
       </c>
@@ -2230,7 +2226,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>111</v>
       </c>
@@ -2247,7 +2243,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>114</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>118</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>122</v>
       </c>
@@ -2298,7 +2294,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>126</v>
       </c>
@@ -2315,7 +2311,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>130</v>
       </c>
@@ -2332,7 +2328,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>134</v>
       </c>
@@ -2349,7 +2345,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>138</v>
       </c>
@@ -2366,7 +2362,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>142</v>
       </c>
@@ -2383,7 +2379,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>178</v>
       </c>
@@ -2403,7 +2399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>179</v>
       </c>
@@ -2420,7 +2416,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>180</v>
       </c>
@@ -2440,7 +2436,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>158</v>
       </c>
@@ -2477,7 +2473,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>162</v>
       </c>
@@ -2494,7 +2490,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>181</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>182</v>
       </c>
@@ -2528,7 +2524,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>185</v>
       </c>
@@ -2545,7 +2541,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>161</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>190</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>194</v>
       </c>
@@ -2596,7 +2592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>168</v>
       </c>
@@ -2613,7 +2609,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>197</v>
       </c>
@@ -2630,7 +2626,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>201</v>
       </c>
@@ -2647,7 +2643,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>204</v>
       </c>
@@ -2664,7 +2660,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>208</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>212</v>
       </c>
@@ -2698,7 +2694,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>216</v>
       </c>
@@ -2715,7 +2711,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>220</v>
       </c>
@@ -2732,7 +2728,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>223</v>
       </c>
@@ -2752,7 +2748,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>227</v>
       </c>
@@ -2772,7 +2768,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>231</v>
       </c>
@@ -2792,7 +2788,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>235</v>
       </c>
@@ -2812,7 +2808,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>239</v>
       </c>
@@ -2832,7 +2828,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>243</v>
       </c>
@@ -2852,7 +2848,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>247</v>
       </c>
@@ -2869,7 +2865,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>251</v>
       </c>
@@ -2886,7 +2882,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>253</v>
       </c>
@@ -2903,7 +2899,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>256</v>
       </c>
@@ -2920,7 +2916,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>259</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>262</v>
       </c>
@@ -2954,7 +2950,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>265</v>
       </c>
@@ -2971,7 +2967,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>268</v>
       </c>
@@ -2988,7 +2984,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>272</v>
       </c>
@@ -3005,7 +3001,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>276</v>
       </c>
@@ -3022,7 +3018,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>280</v>
       </c>
@@ -3039,7 +3035,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>284</v>
       </c>
@@ -3056,7 +3052,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>288</v>
       </c>
@@ -3073,7 +3069,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>292</v>
       </c>
@@ -3090,7 +3086,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>296</v>
       </c>
@@ -3107,7 +3103,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>300</v>
       </c>
@@ -3124,7 +3120,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>304</v>
       </c>
@@ -3141,7 +3137,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>390</v>
       </c>
@@ -3158,7 +3154,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>393</v>
       </c>
@@ -3175,7 +3171,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>396</v>
       </c>
@@ -3192,7 +3188,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>400</v>
       </c>
@@ -3209,7 +3205,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>403</v>
       </c>
@@ -3226,7 +3222,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>405</v>
       </c>
@@ -3243,7 +3239,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>161</v>
       </c>
@@ -3260,7 +3256,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>97</v>
       </c>
@@ -3277,7 +3273,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>161</v>
       </c>
@@ -3294,7 +3290,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>417</v>
       </c>
@@ -3311,7 +3307,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>419</v>
       </c>
@@ -3328,7 +3324,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>421</v>
       </c>
@@ -3345,912 +3341,912 @@
         <v>422</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4258,6 +4254,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e700d022-1169-4f15-9572-7ea1b5080573" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB2CEFB3DB85664FB39FE1B52EB3EF9E" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2160b093b2fa99273281a6936fa6455">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e700d022-1169-4f15-9572-7ea1b5080573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e29b44c297dd9f04144dc3cdd1cfcd66" ns3:_="">
     <xsd:import namespace="e700d022-1169-4f15-9572-7ea1b5080573"/>
@@ -4421,37 +4434,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e700d022-1169-4f15-9572-7ea1b5080573" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB040A47-2926-481B-AC54-22C04476E448}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8390072A-0D07-4DF1-B0B3-7BF43E0353E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e700d022-1169-4f15-9572-7ea1b5080573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4473,9 +4459,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8390072A-0D07-4DF1-B0B3-7BF43E0353E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB040A47-2926-481B-AC54-22C04476E448}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e700d022-1169-4f15-9572-7ea1b5080573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>